--- a/Nelder/Risultati_F16_Nelder.xlsx
+++ b/Nelder/Risultati_F16_Nelder.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet name="n_10" sheetId="2" r:id="rId3"/>
     <sheet name="n_25" sheetId="3" r:id="rId5"/>
+    <sheet name="n_50" sheetId="4" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
@@ -15,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="45" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="173" uniqueCount="17">
   <si>
     <t>Initial condition</t>
   </si>
@@ -63,6 +64,9 @@
   </si>
   <si>
     <t>Problem</t>
+  </si>
+  <si>
+    <t>Mean</t>
   </si>
 </sst>
 </file>
@@ -108,7 +112,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -139,13 +143,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="0">
-        <v>0.68942270000000005</v>
+        <v>0.0909224</v>
       </c>
       <c r="C2" s="0">
-        <v>-8.0513921050632504</v>
+        <v>-8.0513921050630746</v>
       </c>
       <c r="D2" s="0">
-        <v>10000</v>
+        <v>573</v>
       </c>
     </row>
     <row r="3">
@@ -153,13 +157,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="0">
-        <v>0.59276209999999996</v>
+        <v>0.097409899999999994</v>
       </c>
       <c r="C3" s="0">
-        <v>-8.0513921050632504</v>
+        <v>-8.0513921050631296</v>
       </c>
       <c r="D3" s="0">
-        <v>10000</v>
+        <v>900</v>
       </c>
     </row>
     <row r="4">
@@ -167,13 +171,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="0">
-        <v>0.63660499999999998</v>
+        <v>0.063976599999999995</v>
       </c>
       <c r="C4" s="0">
-        <v>-8.0513921050632504</v>
+        <v>-8.0513921050630834</v>
       </c>
       <c r="D4" s="0">
-        <v>10000</v>
+        <v>696</v>
       </c>
     </row>
     <row r="5">
@@ -181,13 +185,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="0">
-        <v>0.70586499999999996</v>
+        <v>0.069055000000000005</v>
       </c>
       <c r="C5" s="0">
-        <v>-8.0513921050632504</v>
+        <v>-8.0513921050631456</v>
       </c>
       <c r="D5" s="0">
-        <v>10000</v>
+        <v>815</v>
       </c>
     </row>
     <row r="6">
@@ -195,13 +199,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="0">
-        <v>0.6545105</v>
+        <v>0.038525799999999999</v>
       </c>
       <c r="C6" s="0">
-        <v>-8.0513921050632504</v>
+        <v>-8.0513921050630621</v>
       </c>
       <c r="D6" s="0">
-        <v>10000</v>
+        <v>582</v>
       </c>
     </row>
     <row r="7">
@@ -209,13 +213,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="0">
-        <v>0.77005299999999999</v>
+        <v>0.029279599999999999</v>
       </c>
       <c r="C7" s="0">
-        <v>-8.0513921050632504</v>
+        <v>-8.0513921050630852</v>
       </c>
       <c r="D7" s="0">
-        <v>10000</v>
+        <v>676</v>
       </c>
     </row>
     <row r="8">
@@ -223,13 +227,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="0">
-        <v>0.74155939999999998</v>
+        <v>0.034396799999999998</v>
       </c>
       <c r="C8" s="0">
-        <v>-8.0513921050632504</v>
+        <v>-8.051392105063119</v>
       </c>
       <c r="D8" s="0">
-        <v>10000</v>
+        <v>703</v>
       </c>
     </row>
     <row r="9">
@@ -237,13 +241,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="0">
-        <v>0.63633280000000003</v>
+        <v>0.025925</v>
       </c>
       <c r="C9" s="0">
-        <v>-8.0513921050632486</v>
+        <v>-8.0513921050630479</v>
       </c>
       <c r="D9" s="0">
-        <v>10000</v>
+        <v>632</v>
       </c>
     </row>
     <row r="10">
@@ -251,13 +255,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="0">
-        <v>0.6734464</v>
+        <v>0.028939699999999999</v>
       </c>
       <c r="C10" s="0">
-        <v>-8.0513921050632504</v>
+        <v>-8.0513921050629165</v>
       </c>
       <c r="D10" s="0">
-        <v>10000</v>
+        <v>601</v>
       </c>
     </row>
     <row r="11">
@@ -265,13 +269,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="0">
-        <v>0.78773839999999995</v>
+        <v>0.025549100000000002</v>
       </c>
       <c r="C11" s="0">
-        <v>-8.0513921050632504</v>
+        <v>-8.0513921050630515</v>
       </c>
       <c r="D11" s="0">
-        <v>10000</v>
+        <v>730</v>
       </c>
     </row>
     <row r="12">
@@ -279,13 +283,27 @@
         <v>11</v>
       </c>
       <c r="B12" s="0">
-        <v>0.8457441</v>
+        <v>0.034562599999999999</v>
       </c>
       <c r="C12" s="0">
-        <v>-8.0513921050632504</v>
+        <v>-8.0513921050629769</v>
       </c>
       <c r="D12" s="0">
-        <v>10000</v>
+        <v>702</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="0">
+        <v>0.048958409090909094</v>
+      </c>
+      <c r="C13" s="0">
+        <v>-8.0513921050630604</v>
+      </c>
+      <c r="D13" s="0">
+        <v>691.81818181818187</v>
       </c>
     </row>
   </sheetData>
@@ -294,7 +312,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -325,13 +343,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="0">
-        <v>0.51206750000000001</v>
+        <v>0.12276380000000001</v>
       </c>
       <c r="C2" s="0">
-        <v>-16.137926968914513</v>
+        <v>-16.137926968914208</v>
       </c>
       <c r="D2" s="0">
-        <v>10000</v>
+        <v>6360</v>
       </c>
     </row>
     <row r="3">
@@ -339,13 +357,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="0">
-        <v>0.53703520000000005</v>
+        <v>0.1110022</v>
       </c>
       <c r="C3" s="0">
-        <v>-16.137926968914513</v>
+        <v>-16.137926968914343</v>
       </c>
       <c r="D3" s="0">
-        <v>10000</v>
+        <v>6141</v>
       </c>
     </row>
     <row r="4">
@@ -353,13 +371,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="0">
-        <v>0.57897580000000004</v>
+        <v>0.10613649999999999</v>
       </c>
       <c r="C4" s="0">
-        <v>-16.137926968914513</v>
+        <v>-16.137926968914332</v>
       </c>
       <c r="D4" s="0">
-        <v>10000</v>
+        <v>6246</v>
       </c>
     </row>
     <row r="5">
@@ -367,13 +385,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="0">
-        <v>0.4742693</v>
+        <v>0.1136934</v>
       </c>
       <c r="C5" s="0">
-        <v>-16.137926968914517</v>
+        <v>-16.137926968914311</v>
       </c>
       <c r="D5" s="0">
-        <v>10000</v>
+        <v>7119</v>
       </c>
     </row>
     <row r="6">
@@ -381,13 +399,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="0">
-        <v>0.5806135</v>
+        <v>0.1202319</v>
       </c>
       <c r="C6" s="0">
-        <v>-16.137926968914513</v>
+        <v>-16.137926968914293</v>
       </c>
       <c r="D6" s="0">
-        <v>10000</v>
+        <v>6213</v>
       </c>
     </row>
     <row r="7">
@@ -395,13 +413,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="0">
-        <v>0.62528669999999997</v>
+        <v>0.1273512</v>
       </c>
       <c r="C7" s="0">
-        <v>-16.13792696891452</v>
+        <v>-16.137926968914236</v>
       </c>
       <c r="D7" s="0">
-        <v>10000</v>
+        <v>5737</v>
       </c>
     </row>
     <row r="8">
@@ -409,13 +427,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="0">
-        <v>0.8334066</v>
+        <v>0.093285999999999994</v>
       </c>
       <c r="C8" s="0">
-        <v>-16.137926968914513</v>
+        <v>-16.137926968914304</v>
       </c>
       <c r="D8" s="0">
-        <v>10000</v>
+        <v>5547</v>
       </c>
     </row>
     <row r="9">
@@ -423,13 +441,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="0">
-        <v>0.39875579999999999</v>
+        <v>0.1167377</v>
       </c>
       <c r="C9" s="0">
-        <v>-16.137926968914517</v>
+        <v>-16.137926968914222</v>
       </c>
       <c r="D9" s="0">
-        <v>10000</v>
+        <v>7367</v>
       </c>
     </row>
     <row r="10">
@@ -437,13 +455,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="0">
-        <v>0.42798599999999998</v>
+        <v>0.1205107</v>
       </c>
       <c r="C10" s="0">
-        <v>-16.137926968914513</v>
+        <v>-16.137926968914265</v>
       </c>
       <c r="D10" s="0">
-        <v>10000</v>
+        <v>7041</v>
       </c>
     </row>
     <row r="11">
@@ -451,13 +469,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="0">
-        <v>0.65790289999999996</v>
+        <v>0.099038600000000004</v>
       </c>
       <c r="C11" s="0">
-        <v>-16.13792696891451</v>
+        <v>-16.137926968914314</v>
       </c>
       <c r="D11" s="0">
-        <v>10000</v>
+        <v>5601</v>
       </c>
     </row>
     <row r="12">
@@ -465,13 +483,227 @@
         <v>11</v>
       </c>
       <c r="B12" s="0">
-        <v>0.39286399999999999</v>
+        <v>0.12537029999999999</v>
       </c>
       <c r="C12" s="0">
-        <v>-16.137926968914517</v>
+        <v>-16.137926968914325</v>
       </c>
       <c r="D12" s="0">
-        <v>10000</v>
+        <v>7374</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="0">
+        <v>0.11419293636363638</v>
+      </c>
+      <c r="C13" s="0">
+        <v>-16.137926968914282</v>
+      </c>
+      <c r="D13" s="0">
+        <v>6431.454545454545</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="7.77734375" customWidth="true"/>
+    <col min="2" max="2" width="9.5546875" customWidth="true"/>
+    <col min="3" max="3" width="12.21875" customWidth="true"/>
+    <col min="4" max="4" width="8.88671875" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0">
+        <v>1.0077609000000001</v>
+      </c>
+      <c r="C2" s="0">
+        <v>-27.894862278726382</v>
+      </c>
+      <c r="D2" s="0">
+        <v>38856</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="0">
+        <v>1.4635351000000001</v>
+      </c>
+      <c r="C3" s="0">
+        <v>-27.894862278726727</v>
+      </c>
+      <c r="D3" s="0">
+        <v>38738</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="0">
+        <v>1.4855457000000001</v>
+      </c>
+      <c r="C4" s="0">
+        <v>-27.894862278726322</v>
+      </c>
+      <c r="D4" s="0">
+        <v>38223</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="0">
+        <v>2.7477621000000001</v>
+      </c>
+      <c r="C5" s="0">
+        <v>-27.89486227872672</v>
+      </c>
+      <c r="D5" s="0">
+        <v>75595</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="0">
+        <v>1.3581615</v>
+      </c>
+      <c r="C6" s="0">
+        <v>-27.894862278724261</v>
+      </c>
+      <c r="D6" s="0">
+        <v>36980</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="0">
+        <v>1.9837365</v>
+      </c>
+      <c r="C7" s="0">
+        <v>-27.894862278726077</v>
+      </c>
+      <c r="D7" s="0">
+        <v>48035</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="0">
+        <v>1.6769415999999999</v>
+      </c>
+      <c r="C8" s="0">
+        <v>-27.894862278726794</v>
+      </c>
+      <c r="D8" s="0">
+        <v>38812</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="0">
+        <v>3.593788</v>
+      </c>
+      <c r="C9" s="0">
+        <v>-27.894862278726649</v>
+      </c>
+      <c r="D9" s="0">
+        <v>60807</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="0">
+        <v>1.9009525</v>
+      </c>
+      <c r="C10" s="0">
+        <v>-27.894862278726336</v>
+      </c>
+      <c r="D10" s="0">
+        <v>41588</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="0">
+        <v>2.5503011</v>
+      </c>
+      <c r="C11" s="0">
+        <v>-27.894862278726109</v>
+      </c>
+      <c r="D11" s="0">
+        <v>47869</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="0">
+        <v>2.3369653000000001</v>
+      </c>
+      <c r="C12" s="0">
+        <v>-27.894862278726851</v>
+      </c>
+      <c r="D12" s="0">
+        <v>38145</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="0">
+        <v>2.0095863909090905</v>
+      </c>
+      <c r="C13" s="0">
+        <v>-27.894862278726297</v>
+      </c>
+      <c r="D13" s="0">
+        <v>45786.181818181816</v>
       </c>
     </row>
   </sheetData>
